--- a/1-Output/Export_Derogations.xlsx
+++ b/1-Output/Export_Derogations.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/derog cfep0033-e.pdf</t>
+          <t>0-Input/PLAST-60/derog cfep0033-e.pdf</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/cmet0005 derog.pdf</t>
+          <t>0-Input/PLAST-60/cmet0005 derog.pdf</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/cfep0032 derog.pdf</t>
+          <t>0-Input/PLAST-60/cfep0032 derog.pdf</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/cfep0065 2022 derog.pdf</t>
+          <t>0-Input/PLAST-60/cfep0065 2022 derog.pdf</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/derogation ccom0029 32.pdf</t>
+          <t>0-Input/PLAST-60/derogation ccom0029 32.pdf</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/derogation ccom0029 32.pdf</t>
+          <t>0-Input/PLAST-60/derogation ccom0029 32.pdf</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/derog enceinte.pdf</t>
+          <t>0-Input/PLAST-60/derog enceinte.pdf</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/derog balance 3kg kern.pdf</t>
+          <t>0-Input/PLAST-60/derog balance 3kg kern.pdf</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/derog balance 3kg kern.pdf</t>
+          <t>0-Input/PLAST-60/derog balance 3kg kern.pdf</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/derog balance 3kg kern.pdf</t>
+          <t>0-Input/PLAST-60/derog balance 3kg kern.pdf</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/derog module PEAK.pdf</t>
+          <t>0-Input/PLAST-60/derog module PEAK.pdf</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/scr-058 derog.pdf</t>
+          <t>0-Input/PLAST-60/scr-058 derog.pdf</t>
         </is>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/pv cycling derog.pdf</t>
+          <t>0-Input/PLAST-60/pv cycling derog.pdf</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/cemi0016 reformé.pdf</t>
+          <t>0-Input/PLAST-60/cemi0016 reformé.pdf</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/retour cofrac.pdf</t>
+          <t>0-Input/PLAST-60/retour cofrac.pdf</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/mail.pdf</t>
+          <t>0-Input/PLAST-60/mail.pdf</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/constructeur.pdf</t>
+          <t>0-Input/PLAST-60/constructeur.pdf</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/retour banc pendule.pdf</t>
+          <t>0-Input/PLAST-60/retour banc pendule.pdf</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo.pdf</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/mail.pdf</t>
+          <t>0-Input/PLAST-60/mail.pdf</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/retour cofrac.pdf</t>
+          <t>0-Input/PLAST-60/retour cofrac.pdf</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - MémoCMET0044.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - MémoCMET0044.pdf</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo banc lavalll.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo banc lavalll.pdf</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo banc lavalll.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo banc lavalll.pdf</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo cscr0471.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo cscr0471.pdf</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémocivc0058.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémocivc0058.pdf</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/CEPE0014 ET CFEP0049.pdf</t>
+          <t>0-Input/PLAST-60/CEPE0014 ET CFEP0049.pdf</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/CEPE0014 ET CFEP0049.pdf</t>
+          <t>0-Input/PLAST-60/CEPE0014 ET CFEP0049.pdf</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo THERMOCOUPLE scr.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo THERMOCOUPLE scr.pdf</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo cmag0242.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo cmag0242.pdf</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo ni.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo ni.pdf</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo ni.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo ni.pdf</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo ni.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo ni.pdf</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo ni.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo ni.pdf</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo ccom0034.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo ccom0034.pdf</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Fiche renseignement PO Ajout Equipement - Isopar Station.doc</t>
+          <t>0-Input/PLAST-60/Fiche renseignement PO Ajout Equipement - Isopar Station.doc</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo  FID.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo  FID.pdf</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo  FID.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo  FID.pdf</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo  FID.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo  FID.pdf</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo clab0221.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo clab0221.pdf</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo  FID.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo  FID.pdf</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo  FID.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo  FID.pdf</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo alimentation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo alimentation.pdf</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo alimentation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo alimentation.pdf</t>
         </is>
       </c>
     </row>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo alimentation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo alimentation.pdf</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo alimentation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo alimentation.pdf</t>
         </is>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo alimentation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo alimentation.pdf</t>
         </is>
       </c>
     </row>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/derogation moyen d'approche.pdf</t>
+          <t>0-Input/PLAST-60/derogation moyen d'approche.pdf</t>
         </is>
       </c>
     </row>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -4124,7 +4124,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo lvdt derogation.pdf</t>
         </is>
       </c>
     </row>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - cmag0242.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - cmag0242.pdf</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - PT 100 station.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - PT 100 station.pdf</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - cepe0008.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - cepe0008.pdf</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/creation instrument LVDT atex.pdf</t>
+          <t>0-Input/PLAST-60/creation instrument LVDT atex.pdf</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/creation instrument LVDT atex.pdf</t>
+          <t>0-Input/PLAST-60/creation instrument LVDT atex.pdf</t>
         </is>
       </c>
     </row>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - alim.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - alim.pdf</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - alim.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - alim.pdf</t>
         </is>
       </c>
     </row>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - alim.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - alim.pdf</t>
         </is>
       </c>
     </row>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - alim.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - alim.pdf</t>
         </is>
       </c>
     </row>
@@ -4534,7 +4534,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - alim.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - alim.pdf</t>
         </is>
       </c>
     </row>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - alim.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - alim.pdf</t>
         </is>
       </c>
     </row>
@@ -4616,7 +4616,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - alim.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - alim.pdf</t>
         </is>
       </c>
     </row>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - alim.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - alim.pdf</t>
         </is>
       </c>
     </row>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - alim.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - alim.pdf</t>
         </is>
       </c>
     </row>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/Microsoft Outlook - ccal0080.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - ccal0080.pdf</t>
         </is>
       </c>
     </row>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/derogation FEP-024 (CFEP0201).docx</t>
+          <t>0-Input/PLAST-60/derogation FEP-024 (CFEP0201).docx</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/derogation MET-002.docx</t>
+          <t>0-Input/PLAST-60/derogation MET-002.docx</t>
         </is>
       </c>
     </row>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/EMT 5 à 6%.msg</t>
+          <t>0-Input/PLAST-60/EMT 5 à 6%.msg</t>
         </is>
       </c>
     </row>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/derogation sled.pdf</t>
+          <t>0-Input/PLAST-60/derogation sled.pdf</t>
         </is>
       </c>
     </row>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>C:/Users/yoann.skoczek/PycharmProjects/OptimuTransfert/0-Input/PLAST-60/derogation sled.pdf</t>
+          <t>0-Input/PLAST-60/derogation sled.pdf</t>
         </is>
       </c>
     </row>

--- a/1-Output/Export_Derogations.xlsx
+++ b/1-Output/Export_Derogations.xlsx
@@ -481,11 +481,11 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>231</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DER2212.0002</t>
+          <t>DER2212.0231</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,14 +495,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CFEP0033-E_FEP-027 (station 1 petrol) Flow measuring chain</t>
+          <t>CFEP0033-E_nan</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>44908</v>
+        <v>44908.66734953703</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44908</v>
+        <v>44908.66734953703</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -522,11 +522,11 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>50</v>
+        <v>322</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DER2211.0050</t>
+          <t>DER2211.0322</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -536,14 +536,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CMET0005_Climatic chamber</t>
+          <t>CMET0005_nan</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>44886</v>
+        <v>44886.44534722222</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44886</v>
+        <v>44886.44534722222</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -563,11 +563,11 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>56</v>
+        <v>325</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DER2211.0056</t>
+          <t>DER2211.0325</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -577,14 +577,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CFEP0032_Soaking room</t>
+          <t>CFEP0032_nan</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>44883</v>
+        <v>44883.58232638889</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44883</v>
+        <v>44883.58232638889</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -604,11 +604,11 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DER2211.0080</t>
+          <t>DER2211.0352</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -618,14 +618,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CFEP0065_Hygrometer</t>
+          <t>CFEP0065_nan</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>44874</v>
+        <v>44874.39452546297</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44874</v>
+        <v>44874.39452546297</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -645,11 +645,11 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>122</v>
+        <v>396</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DER2210.0122</t>
+          <t>DER2210.0396</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CCOM0032_test bench</t>
+          <t>CCOM0032_nan</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>44859</v>
+        <v>44859.39673611111</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44859</v>
+        <v>44859.39673611111</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -686,11 +686,11 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>124</v>
+        <v>397</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DER2210.0124</t>
+          <t>DER2210.0397</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -700,14 +700,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CCOM0029_test bench</t>
+          <t>CCOM0029_nan</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>44859</v>
+        <v>44859.39383101852</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44859</v>
+        <v>44859.39383101852</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -727,11 +727,11 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>174</v>
+        <v>449</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DER2209.0174</t>
+          <t>DER2209.0449</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -741,14 +741,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CFEP0114_Soaking room</t>
+          <t>CFEP0114_nan</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>44817</v>
+        <v>44817.38099537037</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44817</v>
+        <v>44817.38099537037</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -768,11 +768,11 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>237</v>
+        <v>520</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DER2208.0237</t>
+          <t>DER2208.0520</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -782,14 +782,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CCAL0325_Scale</t>
+          <t>CCAL0374_nan</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>44802</v>
+        <v>44802.39268518519</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44802</v>
+        <v>44802.39268518519</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -809,11 +809,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>246</v>
+        <v>522</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DER2208.0246</t>
+          <t>DER2208.0522</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,14 +823,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CCAL0322_scale</t>
+          <t>CCAL0322_nan</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>44802</v>
+        <v>44802.38371527778</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44802</v>
+        <v>44802.38371527778</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -850,11 +850,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>248</v>
+        <v>523</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DER2208.0248</t>
+          <t>DER2208.0523</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -864,14 +864,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CCAL0374_Scale</t>
+          <t>CCAL0325_nan</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>44802</v>
+        <v>44802.37577546296</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44802</v>
+        <v>44802.37577546296</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -891,11 +891,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>495</v>
+        <v>771</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DER2207.0495</t>
+          <t>DER2207.0771</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -905,14 +905,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CCAL0335_Temperature recorder</t>
+          <t>CCAL0335_nan</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>44749</v>
+        <v>44749.36143518519</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44749</v>
+        <v>44749.36143518519</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -932,11 +932,11 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>566</v>
+        <v>843</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DER2206.0566</t>
+          <t>DER2206.0843</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CSCR0426_Climatic chamber</t>
+          <t>CSCR0426_nan</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
@@ -973,11 +973,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>723</v>
+        <v>1000</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DER2204.0723</t>
+          <t>DER2204.1000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CFEP0272-P02_Pressure sensor [-300 600 mbar]</t>
+          <t>CFEP0272-P02_Pressure sensor [FEP-009]</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
@@ -1014,11 +1014,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1596</v>
+        <v>1875</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DER2106.1596</t>
+          <t>DER2106.1875</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1028,14 +1028,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CEMI0016_Flame Ionization Detector (F.I.D.)</t>
+          <t>CEMI0016_nan</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>44364</v>
+        <v>44364.64038194445</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44364</v>
+        <v>44364.64038194445</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1055,11 +1055,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1632</v>
+        <v>1908</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DER2106.1632</t>
+          <t>DER2106.1908</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1069,14 +1069,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CMET0017_TEST BENCH</t>
+          <t>CMET0017_nan</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>44350</v>
+        <v>44350.6109375</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44350</v>
+        <v>44350.6109375</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1096,11 +1096,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>1635</v>
+        <v>1909</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DER2106.1635</t>
+          <t>DER2106.1909</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1110,14 +1110,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CMET0017_TEST BENCH</t>
+          <t>CMET0017_nan</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>44350</v>
+        <v>44350.6109375</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44350</v>
+        <v>44350.6109375</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1137,11 +1137,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1636</v>
+        <v>1910</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DER2106.1636</t>
+          <t>DER2106.1910</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1151,14 +1151,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CMET0017_TEST BENCH</t>
+          <t>CMET0017_nan</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>44350</v>
+        <v>44350.6109375</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44350</v>
+        <v>44350.6109375</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1178,11 +1178,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1641</v>
+        <v>1911</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DER2106.1641</t>
+          <t>DER2106.1911</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1192,14 +1192,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CMET0017_TEST BENCH</t>
+          <t>CMET0017_nan</t>
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>44350</v>
+        <v>44350.6109375</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44350</v>
+        <v>44350.6109375</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1219,11 +1219,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1642</v>
+        <v>1912</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DER2106.1642</t>
+          <t>DER2106.1912</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1233,14 +1233,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CMET0017_TEST BENCH</t>
+          <t>CMET0017_nan</t>
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>44350</v>
+        <v>44350.6109375</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44350</v>
+        <v>44350.6109375</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1260,11 +1260,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>1826</v>
+        <v>2105</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DER2104.1826</t>
+          <t>DER2104.2105</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CSCR0218_Clampmeter</t>
+          <t>CSCR0218_nan</t>
         </is>
       </c>
       <c r="E21" s="2" t="n">
@@ -1301,11 +1301,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>1828</v>
+        <v>2106</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DER2104.1828</t>
+          <t>DER2104.2106</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CSCR0218_Clampmeter</t>
+          <t>CSCR0218_nan</t>
         </is>
       </c>
       <c r="E22" s="2" t="n">
@@ -1342,11 +1342,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>2513</v>
+        <v>2792</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DER2008.2513</t>
+          <t>DER2008.2792</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1356,14 +1356,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CMET0044_Scale</t>
+          <t>CMET0044_nan</t>
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>44049</v>
+        <v>44049.42202546296</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44049</v>
+        <v>44049.42202546296</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>2590</v>
+        <v>2868</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DER2007.2590</t>
+          <t>DER2007.2868</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1397,14 +1397,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CCOM0028_test bench</t>
+          <t>CCOM0031_Ohmmeter [COM-002_Bench1]</t>
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>44032</v>
+        <v>44032.68672453704</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44032</v>
+        <v>44032.68672453704</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1424,11 +1424,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>2591</v>
+        <v>2869</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DER2007.2591</t>
+          <t>DER2007.2869</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1438,14 +1438,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CCOM0031_Ohmmeter</t>
+          <t>CCOM0028_Ohmmeter [COM-002_Bench1]</t>
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>44032</v>
+        <v>44032.59962962963</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44032</v>
+        <v>44032.59962962963</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1465,11 +1465,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>2946</v>
+        <v>3224</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DER1912.2946</t>
+          <t>DER1912.3224</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1483,10 +1483,10 @@
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>43811</v>
+        <v>43811.69965277778</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>43811</v>
+        <v>43811.69965277778</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1506,11 +1506,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3338</v>
+        <v>3616</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DER1907.3338</t>
+          <t>DER1907.3616</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1520,14 +1520,14 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CIVC0058_Débitmètre</t>
+          <t>CIVC0058_nan</t>
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>43675</v>
+        <v>43675.58328703704</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>43675</v>
+        <v>43675.58328703704</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1547,11 +1547,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3355</v>
+        <v>3632</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DER1907.3355</t>
+          <t>DER1907.3632</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1561,14 +1561,14 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CEPE0014_Gas flowmeter</t>
+          <t>CFEP0049_nan</t>
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>43670</v>
+        <v>43670.45990740741</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>43670</v>
+        <v>43670.45990740741</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1588,11 +1588,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3357</v>
+        <v>3633</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DER1907.3357</t>
+          <t>DER1907.3633</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1602,14 +1602,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CFEP0049_Gas flowmeter</t>
+          <t>CEPE0014_nan</t>
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>43670</v>
+        <v>43670.45923611111</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>43670</v>
+        <v>43670.45923611111</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1629,11 +1629,11 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3407</v>
+        <v>3686</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DER1907.3407</t>
+          <t>DER1907.3686</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1643,14 +1643,14 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CSCR0697_Thermocouple [T]</t>
+          <t>CSCR0697_nan</t>
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>43655</v>
+        <v>43655.61822916667</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>43655</v>
+        <v>43655.61822916667</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1670,11 +1670,11 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3763</v>
+        <v>4035</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DER1903.3763</t>
+          <t>DER1903.4035</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1684,14 +1684,14 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CMAG0242_Pressure sensor</t>
+          <t>CMAG0242_nan</t>
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>43530</v>
+        <v>43530.66734953703</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>43530</v>
+        <v>43530.66734953703</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1711,11 +1711,11 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3780</v>
+        <v>4058</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DER1902.3780</t>
+          <t>DER1902.4058</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1725,14 +1725,14 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CCAL0104_NI 9477</t>
+          <t>CCAL0104_nan</t>
         </is>
       </c>
       <c r="E32" s="2" t="n">
-        <v>43517</v>
+        <v>43517.46533564815</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>43517</v>
+        <v>43517.46533564815</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1752,11 +1752,11 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3781</v>
+        <v>4059</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DER1902.3781</t>
+          <t>DER1902.4059</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CCAL0101_NI 9264</t>
+          <t>CCAL0103_nan</t>
         </is>
       </c>
       <c r="E33" s="2" t="n">
-        <v>43517</v>
+        <v>43517.46496527778</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>43517</v>
+        <v>43517.46496527778</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1793,11 +1793,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3782</v>
+        <v>4060</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DER1902.3782</t>
+          <t>DER1902.4060</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1807,14 +1807,14 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CCAL0103_NI 9477</t>
+          <t>CCAL0101_nan</t>
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>43517</v>
+        <v>43517.46454861111</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>43517</v>
+        <v>43517.46454861111</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1834,11 +1834,11 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3783</v>
+        <v>4061</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DER1902.3783</t>
+          <t>DER1902.4061</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1848,14 +1848,14 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CCAL0100_NI 9269</t>
+          <t>CCAL0100_nan</t>
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>43517</v>
+        <v>43517.46222222222</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>43517</v>
+        <v>43517.46222222222</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1875,11 +1875,11 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3787</v>
+        <v>4067</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DER1902.3787</t>
+          <t>DER1902.4067</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1889,14 +1889,14 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CCOM0034_Volumeter</t>
+          <t>CCOM0034_nan</t>
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>43515</v>
+        <v>43515.36648148148</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>43515</v>
+        <v>43515.36648148148</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1916,11 +1916,11 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3789</v>
+        <v>4068</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DER1902.3789</t>
+          <t>DER1902.4068</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1930,14 +1930,14 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CCOM0034_Volumeter</t>
+          <t>CCOM0034_nan</t>
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>43515</v>
+        <v>43515.36648148148</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>43515</v>
+        <v>43515.36648148148</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1957,11 +1957,11 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3807</v>
+        <v>4085</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DER1902.3807</t>
+          <t>DER1902.4085</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1971,14 +1971,14 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CEMI0016_Flame Ionization Detector (F.I.D.)</t>
+          <t>CEMI0058_nan</t>
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>43509</v>
+        <v>43509.72785879629</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>43509</v>
+        <v>43509.72785879629</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1998,11 +1998,11 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3809</v>
+        <v>4086</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DER1902.3809</t>
+          <t>DER1902.4086</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2012,14 +2012,14 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CEMI0058_Flame Ionization Detector (F.I.D.)</t>
+          <t>CEMI0017_nan</t>
         </is>
       </c>
       <c r="E39" s="2" t="n">
-        <v>43509</v>
+        <v>43509.72690972222</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>43509</v>
+        <v>43509.72690972222</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2039,11 +2039,11 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3811</v>
+        <v>4087</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DER1902.3811</t>
+          <t>DER1902.4087</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CEMI0017_Flame Ionization Detector (F.I.D.)</t>
+          <t>CEMI0016_nan</t>
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>43509</v>
+        <v>43509.72653935185</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>43509</v>
+        <v>43509.72653935185</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2080,11 +2080,11 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3812</v>
+        <v>4088</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DER1902.3812</t>
+          <t>DER1902.4088</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2094,14 +2094,14 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CLAB0221_NI USB 6211</t>
+          <t>CEMI0056_nan</t>
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>43509</v>
+        <v>43509.72582175926</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>43509</v>
+        <v>43509.72582175926</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2110,22 +2110,22 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Microsoft Outlook - Mémo clab0221.pdf</t>
+          <t>Microsoft Outlook - Mémo  FID.pdf</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo clab0221.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo  FID.pdf</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3813</v>
+        <v>4089</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DER1902.3813</t>
+          <t>DER1902.4089</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2135,14 +2135,14 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>CEMI0057_Flame Ionization Detector (F.I.D.)</t>
+          <t>CEMI0057_nan</t>
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>43509</v>
+        <v>43509.69898148148</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>43509</v>
+        <v>43509.69898148148</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2162,11 +2162,11 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3816</v>
+        <v>4090</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DER1902.3816</t>
+          <t>DER1902.4090</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2176,14 +2176,14 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>CEMI0056_Flame Ionization Detector (F.I.D.)</t>
+          <t>CLAB0221_nan</t>
         </is>
       </c>
       <c r="E43" s="2" t="n">
-        <v>43509</v>
+        <v>43509.63321759259</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>43509</v>
+        <v>43509.63321759259</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2192,22 +2192,22 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Microsoft Outlook - Mémo  FID.pdf</t>
+          <t>Microsoft Outlook - Mémo clab0221.pdf</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo  FID.pdf</t>
+          <t>0-Input/PLAST-60/Microsoft Outlook - Mémo clab0221.pdf</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3829</v>
+        <v>4106</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DER1902.3829</t>
+          <t>DER1902.4106</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2217,14 +2217,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CCAL0005_stabilised power supply</t>
+          <t>CCAL0008_nan</t>
         </is>
       </c>
       <c r="E44" s="2" t="n">
-        <v>43507</v>
+        <v>43507.77188657408</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>43507</v>
+        <v>43507.77188657408</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2244,11 +2244,11 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3831</v>
+        <v>4107</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DER1902.3831</t>
+          <t>DER1902.4107</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2258,14 +2258,14 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CCAL0006_stabilised power supply</t>
+          <t>CCAL0007_nan</t>
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>43507</v>
+        <v>43507.7584375</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>43507</v>
+        <v>43507.7584375</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2285,11 +2285,11 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3833</v>
+        <v>4108</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DER1902.3833</t>
+          <t>DER1902.4108</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2299,14 +2299,14 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CCAL0004_stabilised power supply</t>
+          <t>CCAL0006_nan</t>
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>43507</v>
+        <v>43507.75773148148</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>43507</v>
+        <v>43507.75773148148</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2326,11 +2326,11 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3834</v>
+        <v>4109</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DER1902.3834</t>
+          <t>DER1902.4109</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2340,14 +2340,14 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CCAL0008_stabilised power supply</t>
+          <t>CCAL0004_nan</t>
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>43507</v>
+        <v>43507.74927083333</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>43507</v>
+        <v>43507.74927083333</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2367,11 +2367,11 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3836</v>
+        <v>4110</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DER1902.3836</t>
+          <t>DER1902.4110</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2381,14 +2381,14 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CCAL0007_stabilised power supply</t>
+          <t>CCAL0005_nan</t>
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>43507</v>
+        <v>43507.74672453704</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>43507</v>
+        <v>43507.74672453704</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2408,11 +2408,11 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3998</v>
+        <v>4275</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DER1901.3998</t>
+          <t>DER1901.4275</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2422,14 +2422,14 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CASS0179_Flowmeter</t>
+          <t>CASS0179_nan</t>
         </is>
       </c>
       <c r="E49" s="2" t="n">
-        <v>43474</v>
+        <v>43474.38423611111</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>43474</v>
+        <v>43474.38423611111</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2449,11 +2449,11 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4118</v>
+        <v>4396</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DER1811.4118</t>
+          <t>DER1811.4396</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2463,14 +2463,14 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CFEP0240_Linear displacement transducer</t>
+          <t>CSCR0501_nan</t>
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>43426</v>
+        <v>43426.43136574074</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>43426</v>
+        <v>43426.43136574074</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2490,11 +2490,11 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4119</v>
+        <v>4397</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DER1811.4119</t>
+          <t>DER1811.4397</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2504,14 +2504,14 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CFEP0244_Linear displacement transducer</t>
+          <t>CSCR0500_nan</t>
         </is>
       </c>
       <c r="E51" s="2" t="n">
-        <v>43426</v>
+        <v>43426.4309375</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>43426</v>
+        <v>43426.4309375</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2531,11 +2531,11 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4120</v>
+        <v>4398</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DER1811.4120</t>
+          <t>DER1811.4398</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2545,14 +2545,14 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CSCR0492_Linear displacement transducer</t>
+          <t>CSCR0499_nan</t>
         </is>
       </c>
       <c r="E52" s="2" t="n">
-        <v>43426</v>
+        <v>43426.43061342592</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>43426</v>
+        <v>43426.43061342592</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2572,11 +2572,11 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>4121</v>
+        <v>4399</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DER1811.4121</t>
+          <t>DER1811.4399</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2586,14 +2586,14 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CSCR0495_Linear displacement transducer</t>
+          <t>CSCR0498_nan</t>
         </is>
       </c>
       <c r="E53" s="2" t="n">
-        <v>43426</v>
+        <v>43426.43018518519</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>43426</v>
+        <v>43426.43018518519</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2613,11 +2613,11 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4122</v>
+        <v>4400</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DER1811.4122</t>
+          <t>DER1811.4400</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2627,14 +2627,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CSCR0489_Linear displacement transducer</t>
+          <t>CSCR0497_nan</t>
         </is>
       </c>
       <c r="E54" s="2" t="n">
-        <v>43426</v>
+        <v>43426.42974537037</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>43426</v>
+        <v>43426.42974537037</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2654,11 +2654,11 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4123</v>
+        <v>4401</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DER1811.4123</t>
+          <t>DER1811.4401</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2668,14 +2668,14 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>CFEP0248_Linear displacement transducer</t>
+          <t>CSCR0496_nan</t>
         </is>
       </c>
       <c r="E55" s="2" t="n">
-        <v>43426</v>
+        <v>43426.42930555555</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>43426</v>
+        <v>43426.42930555555</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2695,11 +2695,11 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4124</v>
+        <v>4402</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DER1811.4124</t>
+          <t>DER1811.4402</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2709,14 +2709,14 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CSCR0499_Linear displacement transducer</t>
+          <t>CSCR0495_nan</t>
         </is>
       </c>
       <c r="E56" s="2" t="n">
-        <v>43426</v>
+        <v>43426.42854166667</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>43426</v>
+        <v>43426.42854166667</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2736,11 +2736,11 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4125</v>
+        <v>4403</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DER1811.4125</t>
+          <t>DER1811.4403</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2750,14 +2750,14 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>CFEP0233_Linear displacement transducer</t>
+          <t>CSCR0494_nan</t>
         </is>
       </c>
       <c r="E57" s="2" t="n">
-        <v>43426</v>
+        <v>43426.42784722222</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>43426</v>
+        <v>43426.42784722222</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2777,11 +2777,11 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4126</v>
+        <v>4404</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DER1811.4126</t>
+          <t>DER1811.4404</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2791,14 +2791,14 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>CSCR0484_Linear displacement transducer</t>
+          <t>CSCR0492_nan</t>
         </is>
       </c>
       <c r="E58" s="2" t="n">
-        <v>43426</v>
+        <v>43426.4259375</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>43426</v>
+        <v>43426.4259375</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2818,11 +2818,11 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4127</v>
+        <v>4405</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DER1811.4127</t>
+          <t>DER1811.4405</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2832,14 +2832,14 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>CSCR0482_Linear displacement transducer</t>
+          <t>CSCR0491_nan</t>
         </is>
       </c>
       <c r="E59" s="2" t="n">
-        <v>43426</v>
+        <v>43426.42561342593</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>43426</v>
+        <v>43426.42561342593</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2859,11 +2859,11 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4128</v>
+        <v>4406</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DER1811.4128</t>
+          <t>DER1811.4406</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2873,14 +2873,14 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>CFEP0243_Linear displacement transducer</t>
+          <t>CSCR0490_nan</t>
         </is>
       </c>
       <c r="E60" s="2" t="n">
-        <v>43426</v>
+        <v>43426.42498842593</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>43426</v>
+        <v>43426.42498842593</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2900,11 +2900,11 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4129</v>
+        <v>4407</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DER1811.4129</t>
+          <t>DER1811.4407</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2914,14 +2914,14 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>CSCR0487_Linear displacement transducer</t>
+          <t>CSCR0489_nan</t>
         </is>
       </c>
       <c r="E61" s="2" t="n">
-        <v>43426</v>
+        <v>43426.42436342593</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>43426</v>
+        <v>43426.42436342593</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2941,11 +2941,11 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4130</v>
+        <v>4408</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DER1811.4130</t>
+          <t>DER1811.4408</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2955,14 +2955,14 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>CSCR0500_Linear displacement transducer</t>
+          <t>CSCR0488_nan</t>
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>43426</v>
+        <v>43426.42364583333</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>43426</v>
+        <v>43426.42364583333</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2982,11 +2982,11 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4131</v>
+        <v>4409</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DER1811.4131</t>
+          <t>DER1811.4409</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2996,14 +2996,14 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>CSCR0485_Linear displacement transducer</t>
+          <t>CSCR0487_nan</t>
         </is>
       </c>
       <c r="E63" s="2" t="n">
-        <v>43426</v>
+        <v>43426.4224537037</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>43426</v>
+        <v>43426.4224537037</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3023,11 +3023,11 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4132</v>
+        <v>4410</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DER1811.4132</t>
+          <t>DER1811.4410</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3037,14 +3037,14 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>CSCR0481_Linear displacement transducer</t>
+          <t>CSCR0486_nan</t>
         </is>
       </c>
       <c r="E64" s="2" t="n">
-        <v>43426</v>
+        <v>43426.42072916667</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>43426</v>
+        <v>43426.42072916667</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3064,11 +3064,11 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4133</v>
+        <v>4411</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DER1811.4133</t>
+          <t>DER1811.4411</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3078,14 +3078,14 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>CSCR0417_Linear displacement transducer</t>
+          <t>CSCR0485_nan</t>
         </is>
       </c>
       <c r="E65" s="2" t="n">
-        <v>43426</v>
+        <v>43426.42016203704</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>43426</v>
+        <v>43426.42016203704</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3105,11 +3105,11 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4134</v>
+        <v>4412</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DER1811.4134</t>
+          <t>DER1811.4412</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3119,14 +3119,14 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>CFEP0241_Linear displacement transducer</t>
+          <t>CSCR0484_nan</t>
         </is>
       </c>
       <c r="E66" s="2" t="n">
-        <v>43426</v>
+        <v>43426.41962962963</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>43426</v>
+        <v>43426.41962962963</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3146,11 +3146,11 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4135</v>
+        <v>4413</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DER1811.4135</t>
+          <t>DER1811.4413</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3160,14 +3160,14 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>CSCR0483_Linear displacement transducer</t>
+          <t>CSCR0483_nan</t>
         </is>
       </c>
       <c r="E67" s="2" t="n">
-        <v>43426</v>
+        <v>43426.41916666667</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>43426</v>
+        <v>43426.41916666667</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3187,11 +3187,11 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4136</v>
+        <v>4414</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DER1811.4136</t>
+          <t>DER1811.4414</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3201,14 +3201,14 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>CSCR0486_Linear displacement transducer</t>
+          <t>CSCR0482_nan</t>
         </is>
       </c>
       <c r="E68" s="2" t="n">
-        <v>43426</v>
+        <v>43426.41820601852</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>43426</v>
+        <v>43426.41820601852</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3228,11 +3228,11 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4137</v>
+        <v>4415</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DER1811.4137</t>
+          <t>DER1811.4415</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3242,14 +3242,14 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>CSCR0491_Linear displacement transducer</t>
+          <t>CSCR0481_nan</t>
         </is>
       </c>
       <c r="E69" s="2" t="n">
-        <v>43426</v>
+        <v>43426.41787037037</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>43426</v>
+        <v>43426.41787037037</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3269,11 +3269,11 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4138</v>
+        <v>4416</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DER1811.4138</t>
+          <t>DER1811.4416</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3283,14 +3283,14 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>CSCR0496_Linear displacement transducer</t>
+          <t>CSCR0480_nan</t>
         </is>
       </c>
       <c r="E70" s="2" t="n">
-        <v>43426</v>
+        <v>43426.41704861111</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>43426</v>
+        <v>43426.41704861111</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3310,11 +3310,11 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4139</v>
+        <v>4417</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DER1811.4139</t>
+          <t>DER1811.4417</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3324,14 +3324,14 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>CSCR0480_Linear displacement transducer</t>
+          <t>CSCR0478_nan</t>
         </is>
       </c>
       <c r="E71" s="2" t="n">
-        <v>43426</v>
+        <v>43426.39304398148</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>43426</v>
+        <v>43426.39304398148</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3351,11 +3351,11 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4140</v>
+        <v>4418</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DER1811.4140</t>
+          <t>DER1811.4418</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3365,14 +3365,14 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>CSCR0490_Linear displacement transducer</t>
+          <t>CSCR0417_nan</t>
         </is>
       </c>
       <c r="E72" s="2" t="n">
-        <v>43426</v>
+        <v>43426.39238425926</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>43426</v>
+        <v>43426.39238425926</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3392,11 +3392,11 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4141</v>
+        <v>4419</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DER1811.4141</t>
+          <t>DER1811.4419</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3406,14 +3406,14 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>CSCR0494_Linear displacement transducer</t>
+          <t>CSCR0235_nan</t>
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>43426</v>
+        <v>43426.39121527778</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>43426</v>
+        <v>43426.39121527778</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3433,11 +3433,11 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4142</v>
+        <v>4420</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DER1811.4142</t>
+          <t>DER1811.4420</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3447,14 +3447,14 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>CFEP0247_Linear displacement transducer</t>
+          <t>CFEP0248_nan</t>
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>43426</v>
+        <v>43426.39059027778</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>43426</v>
+        <v>43426.39059027778</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3474,11 +3474,11 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4143</v>
+        <v>4421</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DER1811.4143</t>
+          <t>DER1811.4421</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3488,14 +3488,14 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>CSCR0235_Linear displacement transducer</t>
+          <t>CFEP0247_nan</t>
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>43426</v>
+        <v>43426.39008101852</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>43426</v>
+        <v>43426.39008101852</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3515,11 +3515,11 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4144</v>
+        <v>4422</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DER1811.4144</t>
+          <t>DER1811.4422</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3529,14 +3529,14 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>CFEP0234_Linear displacement transducer</t>
+          <t>CFEP0246_nan</t>
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>43426</v>
+        <v>43426.38965277778</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>43426</v>
+        <v>43426.38965277778</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -3556,11 +3556,11 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4145</v>
+        <v>4423</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DER1811.4145</t>
+          <t>DER1811.4423</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3570,14 +3570,14 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>CSCR0478_Linear displacement transducer</t>
+          <t>CFEP0245_nan</t>
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>43426</v>
+        <v>43426.38913194444</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>43426</v>
+        <v>43426.38913194444</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -3597,11 +3597,11 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4146</v>
+        <v>4424</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DER1811.4146</t>
+          <t>DER1811.4424</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3611,14 +3611,14 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>CFEP0246_Linear displacement transducer</t>
+          <t>CFEP0244_nan</t>
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>43426</v>
+        <v>43426.3887962963</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>43426</v>
+        <v>43426.3887962963</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -3638,11 +3638,11 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4147</v>
+        <v>4425</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DER1811.4147</t>
+          <t>DER1811.4425</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3652,14 +3652,14 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>CFEP0236_Linear displacement transducer</t>
+          <t>CFEP0243_nan</t>
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>43426</v>
+        <v>43426.38841435185</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>43426</v>
+        <v>43426.38841435185</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -3679,11 +3679,11 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4148</v>
+        <v>4426</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DER1811.4148</t>
+          <t>DER1811.4426</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3693,14 +3693,14 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>CFEP0239_Linear displacement transducer</t>
+          <t>CFEP0242_nan</t>
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>43426</v>
+        <v>43426.38793981481</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>43426</v>
+        <v>43426.38793981481</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3720,11 +3720,11 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4149</v>
+        <v>4427</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DER1811.4149</t>
+          <t>DER1811.4427</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3734,14 +3734,14 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>CSCR0488_Linear displacement transducer</t>
+          <t>CFEP0241_nan</t>
         </is>
       </c>
       <c r="E81" s="2" t="n">
-        <v>43426</v>
+        <v>43426.38743055556</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>43426</v>
+        <v>43426.38743055556</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3761,11 +3761,11 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4150</v>
+        <v>4428</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DER1811.4150</t>
+          <t>DER1811.4428</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3775,14 +3775,14 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>CFEP0245_Linear displacement transducer</t>
+          <t>CFEP0240_nan</t>
         </is>
       </c>
       <c r="E82" s="2" t="n">
-        <v>43426</v>
+        <v>43426.38704861111</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>43426</v>
+        <v>43426.38704861111</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3802,11 +3802,11 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4151</v>
+        <v>4429</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DER1811.4151</t>
+          <t>DER1811.4429</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3816,14 +3816,14 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>CFEP0238_Linear displacement transducer</t>
+          <t>CFEP0239_nan</t>
         </is>
       </c>
       <c r="E83" s="2" t="n">
-        <v>43426</v>
+        <v>43426.3859375</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>43426</v>
+        <v>43426.3859375</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3843,11 +3843,11 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4152</v>
+        <v>4430</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DER1811.4152</t>
+          <t>DER1811.4430</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3857,14 +3857,14 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>CFEP0237_Linear displacement transducer</t>
+          <t>CFEP0238_nan</t>
         </is>
       </c>
       <c r="E84" s="2" t="n">
-        <v>43426</v>
+        <v>43426.38524305556</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>43426</v>
+        <v>43426.38524305556</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3884,11 +3884,11 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4153</v>
+        <v>4431</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DER1811.4153</t>
+          <t>DER1811.4431</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3898,14 +3898,14 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>CSCR0497_Linear displacement transducer</t>
+          <t>CFEP0237_nan</t>
         </is>
       </c>
       <c r="E85" s="2" t="n">
-        <v>43426</v>
+        <v>43426.38405092592</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>43426</v>
+        <v>43426.38405092592</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3925,11 +3925,11 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4154</v>
+        <v>4432</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DER1811.4154</t>
+          <t>DER1811.4432</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3939,14 +3939,14 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>CSCR0501_Linear displacement transducer</t>
+          <t>CFEP0236_nan</t>
         </is>
       </c>
       <c r="E86" s="2" t="n">
-        <v>43426</v>
+        <v>43426.38046296296</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>43426</v>
+        <v>43426.38046296296</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3966,11 +3966,11 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4155</v>
+        <v>4433</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DER1811.4155</t>
+          <t>DER1811.4433</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3980,14 +3980,14 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>CSCR0498_Linear displacement transducer</t>
+          <t>CFEP0235_nan</t>
         </is>
       </c>
       <c r="E87" s="2" t="n">
-        <v>43426</v>
+        <v>43426.37696759259</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>43426</v>
+        <v>43426.37696759259</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4007,11 +4007,11 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4156</v>
+        <v>4434</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DER1811.4156</t>
+          <t>DER1811.4434</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4021,14 +4021,14 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>CFEP0242_Linear displacement transducer</t>
+          <t>CFEP0234_nan</t>
         </is>
       </c>
       <c r="E88" s="2" t="n">
-        <v>43426</v>
+        <v>43426.37621527778</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>43426</v>
+        <v>43426.37621527778</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4048,11 +4048,11 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4158</v>
+        <v>4435</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DER1811.4158</t>
+          <t>DER1811.4435</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4062,14 +4062,14 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>CFEP0235_Linear displacement transducer</t>
+          <t>CFEP0233_nan</t>
         </is>
       </c>
       <c r="E89" s="2" t="n">
-        <v>43426</v>
+        <v>43426.37518518518</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>43426</v>
+        <v>43426.37518518518</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4089,11 +4089,11 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4170</v>
+        <v>4448</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DER1811.4170</t>
+          <t>DER1811.4448</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4103,14 +4103,14 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>CSCR0479_Linear displacement transducer</t>
+          <t>CSCR0479_nan</t>
         </is>
       </c>
       <c r="E90" s="2" t="n">
-        <v>43423</v>
+        <v>43423.40804398148</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>43423</v>
+        <v>43423.40804398148</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -4130,11 +4130,11 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4442</v>
+        <v>4719</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DER1809.4442</t>
+          <t>DER1809.4719</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4144,14 +4144,14 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>CMAG0242_Pressure sensor</t>
+          <t>CMAG0242_nan</t>
         </is>
       </c>
       <c r="E91" s="2" t="n">
-        <v>43356</v>
+        <v>43356.62712962963</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>43356</v>
+        <v>43356.62712962963</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4171,11 +4171,11 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4445</v>
+        <v>4720</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DER1809.4445</t>
+          <t>DER1809.4720</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4185,14 +4185,14 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>CFEP0262_measuring chain</t>
+          <t>CFEP0262_nan</t>
         </is>
       </c>
       <c r="E92" s="2" t="n">
-        <v>43356</v>
+        <v>43356.62334490741</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>43356</v>
+        <v>43356.62334490741</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4212,11 +4212,11 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4454</v>
+        <v>4730</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DER1809.4454</t>
+          <t>DER1809.4730</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4226,14 +4226,14 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>CEPE0008_Enceinte thermostatique</t>
+          <t>CEPE0008_Climatic chamber [EPE-009]</t>
         </is>
       </c>
       <c r="E93" s="2" t="n">
-        <v>43354</v>
+        <v>43354.64939814815</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>43354</v>
+        <v>43354.64939814815</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4253,11 +4253,11 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4896</v>
+        <v>5187</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DER1806.4896</t>
+          <t>DER1806.5187</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4267,14 +4267,14 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>CFEP0240_Linear displacement transducer</t>
+          <t>CFEP0240_nan</t>
         </is>
       </c>
       <c r="E94" s="2" t="n">
-        <v>43265</v>
+        <v>43265.5749074074</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>43265</v>
+        <v>43265.5749074074</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4294,11 +4294,11 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4911</v>
+        <v>5188</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DER1806.4911</t>
+          <t>DER1806.5188</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4308,14 +4308,14 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>CFEP0239_Linear displacement transducer</t>
+          <t>CFEP0239_nan</t>
         </is>
       </c>
       <c r="E95" s="2" t="n">
-        <v>43265</v>
+        <v>43265.56630787037</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>43265</v>
+        <v>43265.56630787037</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>5005</v>
+        <v>5295</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DER1806.5005</t>
+          <t>DER1806.5295</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4349,14 +4349,14 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>CCAL0243_Stabilised power supply</t>
+          <t>CCAL0241_nan</t>
         </is>
       </c>
       <c r="E96" s="2" t="n">
-        <v>43257</v>
+        <v>43257.63094907408</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>43257</v>
+        <v>43257.63094907408</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4376,11 +4376,11 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>5009</v>
+        <v>5300</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DER1806.5009</t>
+          <t>DER1806.5300</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4390,14 +4390,14 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>CCAL0241_Stabilised power supply</t>
+          <t>CCAL0208_nan</t>
         </is>
       </c>
       <c r="E97" s="2" t="n">
-        <v>43257</v>
+        <v>43257.55574074074</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>43257</v>
+        <v>43257.55574074074</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -4417,11 +4417,11 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>5015</v>
+        <v>5301</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DER1806.5015</t>
+          <t>DER1806.5301</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4431,14 +4431,14 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>CCAL0245_Stabilised power supply</t>
+          <t>CCAL0240_Stabilised power supply</t>
         </is>
       </c>
       <c r="E98" s="2" t="n">
-        <v>43257</v>
+        <v>43257.55574074074</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>43257</v>
+        <v>43257.55574074074</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -4458,11 +4458,11 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>5017</v>
+        <v>5306</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DER1806.5017</t>
+          <t>DER1806.5306</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4472,14 +4472,14 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>CCAL0247_Stabilised power supply</t>
+          <t>CCAL0247_nan</t>
         </is>
       </c>
       <c r="E99" s="2" t="n">
-        <v>43257</v>
+        <v>43257.41318287037</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>43257</v>
+        <v>43257.41318287037</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -4499,11 +4499,11 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>5019</v>
+        <v>5307</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DER1806.5019</t>
+          <t>DER1806.5307</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4513,14 +4513,14 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>CCAL0240_Stabilised power supply</t>
+          <t>CCAL0243_nan</t>
         </is>
       </c>
       <c r="E100" s="2" t="n">
-        <v>43257</v>
+        <v>43257.41318287037</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>43257</v>
+        <v>43257.41318287037</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -4540,11 +4540,11 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>5026</v>
+        <v>5308</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DER1806.5026</t>
+          <t>DER1806.5308</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4554,14 +4554,14 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>CCAL0208_Stabilised power supply</t>
+          <t>CCAL0246_Stabilised power supply</t>
         </is>
       </c>
       <c r="E101" s="2" t="n">
-        <v>43257</v>
+        <v>43257.41318287037</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>43257</v>
+        <v>43257.41318287037</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -4581,11 +4581,11 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>5036</v>
+        <v>5309</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DER1806.5036</t>
+          <t>DER1806.5309</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4595,14 +4595,14 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>CCAL0244_Stabilised power supply</t>
+          <t>CCAL0244_nan</t>
         </is>
       </c>
       <c r="E102" s="2" t="n">
-        <v>43257</v>
+        <v>43257.41318287037</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>43257</v>
+        <v>43257.41318287037</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>5038</v>
+        <v>5310</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DER1806.5038</t>
+          <t>DER1806.5310</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4636,14 +4636,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>CCAL0242_Stabilised power supply</t>
+          <t>CCAL0242_nan</t>
         </is>
       </c>
       <c r="E103" s="2" t="n">
-        <v>43257</v>
+        <v>43257.41318287037</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>43257</v>
+        <v>43257.41318287037</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -4663,11 +4663,11 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>5040</v>
+        <v>5311</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DER1806.5040</t>
+          <t>DER1806.5311</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4677,14 +4677,14 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>CCAL0246_Stabilised power supply</t>
+          <t>CCAL0245_nan</t>
         </is>
       </c>
       <c r="E104" s="2" t="n">
-        <v>43257</v>
+        <v>43257.41318287037</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>43257</v>
+        <v>43257.41318287037</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -4704,11 +4704,11 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>5065</v>
+        <v>5343</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DER1805.5065</t>
+          <t>DER1805.5343</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4718,14 +4718,14 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>CCAL0080_Stabilised power supply</t>
+          <t>CCAL0080_nan</t>
         </is>
       </c>
       <c r="E105" s="2" t="n">
-        <v>43248</v>
+        <v>43248.52369212963</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>43248</v>
+        <v>43248.52369212963</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -4745,11 +4745,11 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>5113</v>
+        <v>5392</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DER1805.5113</t>
+          <t>DER1805.5392</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4759,14 +4759,14 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>CFEP0201_Soaking room</t>
+          <t>CFEP0201_nan</t>
         </is>
       </c>
       <c r="E106" s="2" t="n">
-        <v>43227</v>
+        <v>43227.3866550926</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>43227</v>
+        <v>43227.3866550926</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -4786,11 +4786,11 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>5158</v>
+        <v>5436</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>DER1804.5158</t>
+          <t>DER1804.5436</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4800,14 +4800,14 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>CMET0005_Climatic chamber</t>
+          <t>CMET0005_nan</t>
         </is>
       </c>
       <c r="E107" s="2" t="n">
-        <v>43195</v>
+        <v>43195.45292824074</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>43195</v>
+        <v>43195.45292824074</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -4827,11 +4827,11 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>5215</v>
+        <v>5492</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>DER1802.5215</t>
+          <t>DER1802.5492</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4841,14 +4841,14 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>CASS0147_Flowmeter</t>
+          <t>CASS0147_nan</t>
         </is>
       </c>
       <c r="E108" s="2" t="n">
-        <v>43158</v>
+        <v>43158.46935185185</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>43158</v>
+        <v>43158.46935185185</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -4868,11 +4868,11 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>5601</v>
+        <v>5879</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>DER1711.5601</t>
+          <t>DER1711.5879</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4882,14 +4882,14 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>CMET0007_Speed sensor</t>
+          <t>CMET0007_nan</t>
         </is>
       </c>
       <c r="E109" s="2" t="n">
-        <v>43059</v>
+        <v>43059.41318287037</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>43059</v>
+        <v>43059.41318287037</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -4909,11 +4909,11 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>5632</v>
+        <v>5911</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DER1710.5632</t>
+          <t>DER1710.5911</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4923,14 +4923,14 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>CMET0043_laser</t>
+          <t>CMET0043_nan</t>
         </is>
       </c>
       <c r="E110" s="2" t="n">
-        <v>43034</v>
+        <v>43034.61203703703</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>43034</v>
+        <v>43034.61203703703</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
